--- a/biology/Médecine/Theophilus_Redwood/Theophilus_Redwood.xlsx
+++ b/biology/Médecine/Theophilus_Redwood/Theophilus_Redwood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Theophilus Redwood, né le 9 avril 1806 à Boverton (en) où il est mort le 5 mars 1892 à , est un pharmacien gallois, un des membres fondateurs de la Royal Pharmaceutical Society of Great Britain (en)[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Theophilus Redwood, né le 9 avril 1806 à Boverton (en) où il est mort le 5 mars 1892 à , est un pharmacien gallois, un des membres fondateurs de la Royal Pharmaceutical Society of Great Britain (en). 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il entre en apprentissage en 1820 chez son beau-frère, Charles Vachell, chirurgien-apothicaire à Cardiff. Vachell avait épousé la demi-sœur aînée de Redwood, Margaret, en 1811.
-Redwood traduit Lehrbuch der pharmaceutischen Technik de Karl Friedrich Mohr[2] et l'adapte à la pratique anglaise. Il s'agit du premier manuel de pharmacie anglais et le publie sous le titre Practical Pharmacy: The Arrangements, Apparatus, and Manipulation of the Pharmaceutical Shop and Laboratory, par Francis Mohr et Theophilus Redwood, Taylor, Walton et Maberly, Londres, en 1849[3]. William Procter Jr. (en) a édité une édition américaine pour l'éditeur Lea and Blanchard de Philadelphie. La pharmacie pratique de Procter a été publiée en 1849[4]. 
+Redwood traduit Lehrbuch der pharmaceutischen Technik de Karl Friedrich Mohr et l'adapte à la pratique anglaise. Il s'agit du premier manuel de pharmacie anglais et le publie sous le titre Practical Pharmacy: The Arrangements, Apparatus, and Manipulation of the Pharmaceutical Shop and Laboratory, par Francis Mohr et Theophilus Redwood, Taylor, Walton et Maberly, Londres, en 1849. William Procter Jr. (en) a édité une édition américaine pour l'éditeur Lea and Blanchard de Philadelphie. La pharmacie pratique de Procter a été publiée en 1849. 
 Secrétaire de la Cavendish Society (1846-1872), président de la Society for Analytical Chemistry (1875-1876) puis vice-président de la Chemical Society, Theophilius Redwood n'a jamais été président de la Pharmaceutical Society, mais a été président des conférences pharmaceutiques britanniques à Glasgow et Plymouth en 1876 et 1877. Il a également été président de la conférence pharmaceutique internationale tenue à Londres en 1881.
 Après sa retraite en 1885, il reçoit le titre de professeur émérite à l'unanimité du Conseil de la Société pharmaceutique. Il retourne dans sa maison familiale de Boverton, dont il a hérité et continue à donner des conférences. Sa dernière apparition publique a lieu à la Conférence pharmaceutique de Cardiff en 1891. 
 Il meurt à son domicile le 5 mars 1892 et est enterré dans le cimetière de Llantwit Major.
@@ -546,10 +560,12 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Theophilus Redwood est décerné par la Royal Society of Chemistry à un scientifique de premier plan en chimie analytique qui se distingue aussi par ses capacités à communiquer[5]. 
-Le bâtiment Redwood de l'université de Cardiff, qui abrite l'école de pharmacie et de sciences pharmaceutiques de Cardiff, a été nommé en son honneur[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Theophilus Redwood est décerné par la Royal Society of Chemistry à un scientifique de premier plan en chimie analytique qui se distingue aussi par ses capacités à communiquer. 
+Le bâtiment Redwood de l'université de Cardiff, qui abrite l'école de pharmacie et de sciences pharmaceutiques de Cardiff, a été nommé en son honneur.
 </t>
         </is>
       </c>
